--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\WWW\lc-crm-service\crm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43B4A5-1269-4BEA-8DE2-06A03AE4BFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8041B-4919-44CA-ACF8-E49F1A26A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="4330" yWindow="2670" windowWidth="19200" windowHeight="11170" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="請款單" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,6 +625,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,56 +799,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5175651" cy="1160689"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="圖片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661A9C8E-1FA5-4D53-8433-1F93DB8CA09D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="226219" y="8691562"/>
-          <a:ext cx="5175651" cy="1160689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2113,29 +2069,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="D6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:10" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2154,7 +2110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
@@ -2194,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
@@ -2214,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -2234,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -2254,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
         <v>24</v>
       </c>
@@ -2314,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
@@ -2334,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
@@ -2354,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
@@ -2374,96 +2330,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:3" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="23.5" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
       <c r="B23" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="28"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="28"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="38"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="38"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8041B-4919-44CA-ACF8-E49F1A26A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795CA7AC-C7E3-477B-B0C8-107E38F0452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4330" yWindow="2670" windowWidth="19200" windowHeight="11170" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="0" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="請款單" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,9 +586,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,12 +601,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -628,6 +619,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,55 +669,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>118154</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1316719" cy="735068"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="林育信-名片-35[1]...jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87BE143-F951-480C-88F7-D492BED21F60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:grayscl/>
-        </a:blip>
-        <a:srcRect l="27451" t="44763" r="50359" b="42296"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="118154" y="142877"/>
-          <a:ext cx="1316719" cy="735068"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:absoluteAnchor>
     <xdr:pos x="100" y="100"/>
     <xdr:ext cx="100" cy="100"/>
@@ -744,7 +686,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -780,7 +722,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2067,31 +2009,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2099,7 +2041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -2121,230 +2063,175 @@
         <v>2</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="23">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="23">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="23">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="23">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="23">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="23">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="23">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="23">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="23">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="23">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="24">
+      <c r="B17" s="33"/>
+      <c r="C17" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2353,79 +2240,79 @@
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.5" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="28"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="38"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="38"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795CA7AC-C7E3-477B-B0C8-107E38F0452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286DFDB7-5DE0-45D1-904D-E6F16D530570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="請款單" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>項目</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -90,13 +90,7 @@
 請款單</t>
   </si>
   <si>
-    <t>單號</t>
-  </si>
-  <si>
     <t>P20250321-585</t>
-  </si>
-  <si>
-    <t>業主:</t>
   </si>
   <si>
     <t>震旦企業股份有限公司</t>
@@ -154,12 +148,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>隨文檢附本公司帳號，承蒙核撥，不勝感激。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>匯款後煩請電聯通知確認款項。感謝。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>**匯款後煩請電聯通知確認款項，承蒙核撥，不勝感激**</t>
+  </si>
+  <si>
+    <t>業主:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單號:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,7 +169,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,18 +252,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="GungsuhChe"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="GungsuhChe"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
@@ -309,6 +294,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -583,45 +575,45 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,16 +629,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2011,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2035,21 +2027,21 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -2062,158 +2054,158 @@
       <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18">
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="23">
         <v>0</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="23">
         <v>0</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="23">
         <v>0</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23">
         <v>0</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="23">
         <v>0</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="23">
         <v>0</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23">
         <v>0</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="23">
         <v>0</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2222,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="21">
+      <c r="C17" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2231,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="35"/>
-      <c r="C18" s="22">
+      <c r="C18" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2240,77 +2232,75 @@
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.5" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
-      <c r="B23" s="23" t="s">
-        <v>28</v>
+      <c r="B23" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="23" t="s">
-        <v>29</v>
+      <c r="B24" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="18"/>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="25"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="25"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="26"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="26"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="29"/>
     </row>

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286DFDB7-5DE0-45D1-904D-E6F16D530570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7C7B8-E69A-4B92-A592-950E99EB7904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">請款單!$A$1:$C$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">請款單!$A$1:$C$34</definedName>
     <definedName name="工程名稱">#REF!</definedName>
     <definedName name="會計科目">[1]會計科目!$A$2:$B$113</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>項目</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -157,19 +157,24 @@
   <si>
     <t>單號:</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款註記：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-404]e&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +306,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -523,6 +535,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +661,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2001,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2012,7 +2042,10 @@
     <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -2298,14 +2331,27 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B32" s="20"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B34" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="29"/>
     </row>
+    <row r="35" spans="1:8" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7C7B8-E69A-4B92-A592-950E99EB7904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC265A-5F6B-4CA3-91E4-3FD014D70B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="請款單" sheetId="1" r:id="rId1"/>
@@ -635,6 +635,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,15 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2049,10 +2049,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
@@ -2099,13 +2099,9 @@
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
@@ -2114,13 +2110,9 @@
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
@@ -2129,13 +2121,9 @@
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
+      <c r="C9" s="23"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
@@ -2144,13 +2132,9 @@
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
@@ -2159,13 +2143,9 @@
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
@@ -2174,13 +2154,9 @@
       <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
@@ -2189,13 +2165,9 @@
       <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
@@ -2204,13 +2176,9 @@
       <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
@@ -2219,13 +2187,9 @@
       <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
@@ -2234,28 +2198,24 @@
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="23">
-        <v>0</v>
-      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="25">
         <v>0</v>
       </c>
@@ -2307,11 +2267,11 @@
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" s="18"/>
@@ -2332,22 +2292,22 @@
       <c r="B32" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC265A-5F6B-4CA3-91E4-3FD014D70B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C940397-F070-48B3-AF35-18F6732C2B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>項目</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>日期: 2025/03/26</t>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -2033,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2060,7 +2056,7 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -2068,7 +2064,7 @@
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -2088,16 +2084,14 @@
         <v>2</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="16"/>
@@ -2105,10 +2099,10 @@
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="16"/>
@@ -2116,10 +2110,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="16"/>
@@ -2127,10 +2121,10 @@
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="16"/>
@@ -2138,10 +2132,10 @@
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="16"/>
@@ -2149,10 +2143,10 @@
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="16"/>
@@ -2160,10 +2154,10 @@
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="16"/>
@@ -2171,10 +2165,10 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="16"/>
@@ -2182,10 +2176,10 @@
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="16"/>
@@ -2193,10 +2187,10 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="16"/>
@@ -2245,12 +2239,12 @@
     <row r="23" spans="1:3" ht="23.5" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
       <c r="B23" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B24" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -2268,7 +2262,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -2293,13 +2287,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B34" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="27"/>

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C940397-F070-48B3-AF35-18F6732C2B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6968C6F-AF83-4062-B109-341BD317DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="請款單" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>**匯款後煩請電聯通知確認款項，承蒙核撥，不勝感激**</t>
-  </si>
-  <si>
     <t>業主:</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -156,6 +153,10 @@
   </si>
   <si>
     <t>收款註記：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨文檢附本公司帳號，承蒙核撥，不勝感激。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,9 +647,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,6 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2029,42 +2033,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="54.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -2073,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2090,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2101,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -2119,7 +2123,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -2130,7 +2134,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2145,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2156,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +2167,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2178,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
@@ -2185,7 +2189,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
@@ -2196,104 +2200,104 @@
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="23.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="18"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="27"/>
@@ -2304,10 +2308,9 @@
       <c r="H35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>

--- a/crm/excel/payment.xlsx
+++ b/crm/excel/payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\justsmart\lc-crm-service\crm\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6968C6F-AF83-4062-B109-341BD317DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AC12AF-E272-4382-B50C-A796686BD3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
+    <workbookView xWindow="180" yWindow="480" windowWidth="28695" windowHeight="15120" xr2:uid="{9C5B49A1-BAC6-4B25-822A-56695BF3CBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="請款單" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>隨文檢附本公司帳號，承蒙核撥，不勝感激。</t>
+    <t>隨文檢附本公司帳號，匯款後煩請電聯通知確認款項。承蒙核撥，不勝感激。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,10 +666,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2033,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DAED0-6BDD-44E1-8C06-F78AFAEE9BE4}">
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2272,10 +2269,11 @@
       <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
@@ -2290,10 +2288,6 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="29" t="s">
@@ -2308,12 +2302,13 @@
       <c r="H35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
